--- a/biology/Botanique/Faux-fruit/Faux-fruit.xlsx
+++ b/biology/Botanique/Faux-fruit/Faux-fruit.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En botanique, un faux-fruit (également appelé faux fruit, fausse baie, pseudo-fruit, fruit accessoire, fruit complexe ou pseudocarpe[1]) est le résultat de la transformation des induvies d'une inflorescence à la suite de la fécondation[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En botanique, un faux-fruit (également appelé faux fruit, fausse baie, pseudo-fruit, fruit accessoire, fruit complexe ou pseudocarpe) est le résultat de la transformation des induvies d'une inflorescence à la suite de la fécondation.
 Par contraste, le fruit vrai est issu du seul pistil de la fleur. Tout autre organe qui ne dégénère pas après fécondation (induvie) se mue en faux-fruit. De ce fait, le terme recouvre un champ très varié. Nombre de faux-fruits sont désignés dans le langage courant sous le nom de fruit. En général, le faux-fruit n'est pas un organe, mais la combinaison de plusieurs organes.
 </t>
         </is>
@@ -512,10 +524,12 @@
           <t>Exemples de faux-fruits</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>La fécondation induit donc parfois le développement d'autres organes ; pédoncule floral chez la pomme de cajou, calice, bractées chez l'ananas, etc.
-La pomme[3], la poire[4] ou le coing[5] sont issus d'un ovaire infère, c'est-à-dire situé sous le reste de la fleur et, par conséquent, entouré par le réceptacle floral. Après la fécondation, le réceptacle se développe en même temps que le fruit. La pomme et la poire sont donc un piridion, combinaison d'un fruit charnu et d'un réceptacle charnu. Quand on coupe une pomme, on remarque, à un certain endroit, au milieu de la chair, une ligne qui semble séparer la pomme en deux. Cette ligne correspond aux vaisseaux du carpelle et donc très approximativement à la limite du fruit. Le mésocarpe est charnu. Mais l'épicarpe n'est plus distinct. L'endocarpe est cette membrane rigide qui limite les cavités contenant les graines.
+La pomme, la poire ou le coing sont issus d'un ovaire infère, c'est-à-dire situé sous le reste de la fleur et, par conséquent, entouré par le réceptacle floral. Après la fécondation, le réceptacle se développe en même temps que le fruit. La pomme et la poire sont donc un piridion, combinaison d'un fruit charnu et d'un réceptacle charnu. Quand on coupe une pomme, on remarque, à un certain endroit, au milieu de la chair, une ligne qui semble séparer la pomme en deux. Cette ligne correspond aux vaisseaux du carpelle et donc très approximativement à la limite du fruit. Le mésocarpe est charnu. Mais l'épicarpe n'est plus distinct. L'endocarpe est cette membrane rigide qui limite les cavités contenant les graines.
 Le cynorrhodon (ou cynorhodon) est le résultat du développement du réceptacle rouge renfermant les fruits du rosier et de l'églantier.
 La fraise est le résultat du développement du réceptacle floral, et les fruits sont les petits akènes jaunes présents à la surface.</t>
         </is>
@@ -545,7 +559,9 @@
           <t>Exemples de fausses baies</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Une fausse baie est un faux-fruit apparaissant dans certaines espèces de plantes avec un ovaire inférieur (ce qui les distingue des véritables baies). Chez ces espèces, les autres parties de la fleur (y compris la partie basale des sépales, des pétales et des étamines) peuvent mûrir en même temps que l'ovaire et former la fausse baie :
 La banane
@@ -581,7 +597,9 @@
           <t>Infrutescence</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les infrutescences sont de faux fruits dans le sens où ils ne constituent pas un fruit unique mais une agglomération de vrais fruits issue de la transformation d'une inflorescence.
 Par exemple, la figue ou sycone n'est pas un vrai fruit mais une infrutescence. L'inflorescence est constituée d'un réceptacle floral creux presque fermé, qui avant fécondation porte de très nombreuses fleurs. C'est ce réceptacle qui va se développer et devenir charnu. Les fruits sont les akènes qui crissent sous la dent et que nous croyons être des graines.
